--- a/CMG_Prompts.xlsx
+++ b/CMG_Prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\NIT6001\CMG_prog_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C963E2-5605-4651-B065-8D1EF9A4F547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2875E3-1F7A-4D84-B7A9-C001741B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37080" yWindow="-6140" windowWidth="23020" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="knowledge" sheetId="1" r:id="rId1"/>
@@ -514,6 +514,9 @@
     </r>
   </si>
   <si>
+    <t>step2_extract_events</t>
+  </si>
+  <si>
     <t>Let's work this out in a step by step way to be sure we have the right answer.
 &lt;instruction&gt;Identify causal relationships between medical concepts such as conditions, treatments, risk factors, and symptoms. Each concept and relation may have multiple labels.&lt;/instruction&gt;
 &lt;format&gt;
@@ -528,13 +531,10 @@
 &lt;/format&gt;
 &lt;constraint&gt;
 - "head_label" and "tail_label" should contain lists of relevant labels, such as condition, treatment, risk factor, symptom, etc.
-- "relation_label" should be one of: Implies, Causes, Negates, AND, OR, Threshold.
+- "relation_label" should be one of: IMPLIES, CAUSES, NEGATES, AND, OR, THRESHOLD.
 - Use plain text for "head_text", "relation_text", and "tail_text".
 &lt;/constraint&gt;
 &lt;reminder&gt;Ensure that the relationships accurately reflect medical logic and that multiple labels can be used for both entities and relations.&lt;/reminder&gt;</t>
-  </si>
-  <si>
-    <t>step2_extract_events</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -662,16 +662,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,8 +889,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1081,16 +1080,16 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26" s="16" customFormat="1" ht="247.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="370.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <f t="shared" ref="A6:A16" si="0">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>

--- a/CMG_Prompts.xlsx
+++ b/CMG_Prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\NIT6001\CMG_prog_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5649A405-214C-43F8-91D6-47D777F100B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940D2AB4-6E28-4899-BF44-3ECC15221398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-11040" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="knowledge" sheetId="1" r:id="rId1"/>
@@ -1144,8 +1144,8 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
